--- a/biology/Zoologie/Austraeolis/Austraeolis.xlsx
+++ b/biology/Zoologie/Austraeolis/Austraeolis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Austraeolis est un genre de mollusques nudibranches de la famille des Facelinidae. Le genre est décrit en 1962 avec comme espèce type le nudibranche australien Flabellina ornata, depuis devenu Austraeolis ornata[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Austraeolis est un genre de mollusques nudibranches de la famille des Facelinidae. Le genre est décrit en 1962 avec comme espèce type le nudibranche australien Flabellina ornata, depuis devenu Austraeolis ornata.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (17 mars 2016)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (17 mars 2016) :
 Austraeolis benthicola Burn, 1966
 Austraeolis catina Ev. Marcus &amp; Er. Marcus, 1967
 Austraeolis ornata (Angas, 1864)
